--- a/Two_samples.xlsx
+++ b/Two_samples.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\мгу\ДПО\стат методы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\загрузки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B647FB2-FC53-4304-BB0F-1ACC20F95851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE0163B-DD69-4102-B75E-22ABBBA743E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E212427-2210-4B36-A3F3-16E12AC3AF01}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Наблюдали активность мужчин и женщин</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Женщины</t>
   </si>
@@ -402,313 +399,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3FDA0F-2B66-478F-B5E0-A9EE1DA2AE3E}">
-  <dimension ref="B1:C40"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>239</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>140</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>139</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>107</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>239</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>140</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>139</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>107</v>
-      </c>
-      <c r="C26" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1"/>
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
